--- a/steel/data/mid-stream/螺纹钢/螺纹钢销量.xlsx
+++ b/steel/data/mid-stream/螺纹钢/螺纹钢销量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Repository\Projects\ffa\steel\data\mid-stream\螺纹钢\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\mid-stream\螺纹钢\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB81FD-F355-451C-8829-FFAE91151DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC867620-4DF3-4E46-BD84-CFA5AA60EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="2213" windowWidth="28800" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>howard</author>
+    <author>FUDIAN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{666B1C1C-DB85-4C64-B9AB-98FD0616DF80}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C48599AA-E2E4-4BEA-85D9-E0FE167ADBB0}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvOo0CXxW3eR4HOIrS+iJBe1s4BmYiRMzkuYp3RRTGqV1aTOx4Vvw9SeO5swSCy1x9BIXUMUylGcWbGMnEzXIOVirczC5VSJr2jyVuhK4LrI/5nQJ0/xmaH9ObBSoRRG/RAPIJXA2ROorXwWbo5OyjxnmybdBSdu1Y1i48MVQcwUQRXxf4l+iCRXViSe2YrU1i3CdHaC/NGni5RTAKh8tK6bI1H+UEIAtP+kEAA7tOgqjDKb65sd8wSwa/Ae+9O9EL7cwd40V81rS1vFnXRkMhKgjkpRaGSDpkjJZ2Je2rp6jEpOCBZjV3TmZHd6VSsShcD2H1+GGLOsPGgIeXy3OSo7vwbTIeHd2RmjQAKAwqhb0Puit1Fh65ZOJUVcZXH0W38AActmLfQUW+BjEOQIohtR5UlUZVDnwR9UHSAtPFtwi1TISwi4pmj1LJC24G6WiQoualQKEOhPKt2wP3m/xeEm7ocuu8ztTk/zHf5GvtOhXgBwZ0ULmfFfHh887JsmGBB3b+M6ZC8rG9n4CtGv3Cm/FgzUVuXOuRK121jo0Q7J8e9l+rmsGiWzi8Bvf6i/ZSdUG4mrt/7Dj2FCgb5L7YDaXU83QGuIa2+nDeiMmUN5AKRV/h/sS7OCJ5wU+IOeXt7t8Zq800IHvmj11VTyjtNfhC6k0+fZcJGqBQT9/XaPcRkXkgUprI+Qz8YR3bFHFDJrKP5CbPuywoJ6CATFVvvQxeFgCbEvHky5WXaxuP9DoACun7YnZ2yQ1OJoQ2Paw8TvnVsdhL2WMC+tKDUX6UI2nz8bJ2XJA86naWA64LTe2FmSgdJ7MmMV5cq0aySUZHnkG3faPobEZcvC0Piw0URK3Y2fnpKpmSGeGu0m8GV+7YHYi3PGmgq/DFyWojWsa+fF8tVh7mDZa5xcuazczkw4+Bty2kFHUpfTfi7PoDeijuhE5P6XkUhCt6220BU/fTwq3fm9S8I3g4Yn49W4X8Zgv5xDb4dYsj4r7Zkwf6Vv1HaewU0v1L/a+8pkAzuzZztqZrXBAUVsO5ImexEDnUxn2L0i4/7OkWV0OpCDEFqVQjjUBv4z25wCQygmvGNWB/XbhkSSW+Gzf70FhV4DCkQV/MfK9jbxead6Y4MkKP1DzY2iOD/o7EzovkR7RW/ynUrAvOvvX1YCv+P9TkU1vS5CTossfuSJEIANm2RR/Q1cv0IzT5EpmRqpP+x8Jvz1kiEescJNo5MU/o297+og4mJPWkt9NiMqqo/dcXZLA653uFYs9Xa13wLzKWyFdcPG0+M=</t>
+          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTssMa5+fEiCZh0fRmPAaxPyyghtjio/6IHRpGZL4U5nc20yzaPUF4phHioFQ5XlnWvDmueoEf4Opr900VFoWZ505onbskxSY7VQf/iJCfVk/e1GyfdP+hQB9RD28vzTKNxhcdA2LYysSUy07/I0XfWOkSri+72gXT8KBts7ZTegFKbG6zTZnprcwMUSJRyw5fAae4nbKSjiqs1zB/mk+uOEQHsZ29oB+6o/fEYTv5GjGexPQzySVyUIid5UT+iTeCXJo27k7SygNKvG/uJGzpC//xO/IM3mxvNBp+pcQHpoy72w1vwqDB54drsVHfRAAEcbLJmMT8Gy6N3rodg+6OVcNZkju8LALW4xJHxztiIGkEJAwhZ9Dl+2cp2vQdoC5sA3FWfnJmX4bSLK4fxPLDc1ZXzt4U8gp/zhbALf5Zw5nSsxSQxRVj6V8l3ui0rfBSIKDCuWoVS2aEzOKyMsgcnTw2pmIZP900k3ct3pJPLKsjxVBdJU90QPZxr4h5dm7gBbxPdUCfKbCKks4KUZFisoFVYPxzyH9utTzVZ56wBWl0f7AhAACBZftRH4XKSp2z2JONG/RxtNFTkZdlPhZdLgzRL2eyKpMQfnF+UXOpD7YdSy5y5+rHwQ+7PYlFQyPgTScvwlPVsyaZWZAgfgbVmzmtWFy3zxw9sYpGOappNSL/ekEIw6OLGV6NzuKR340acDJ3pkOQQ1PphDNYqz4KOJovPm3lGs8e3AnmAqO2HLJSzSWeSabe9GFBQwsgWTMykJBl8LS/VE/YKFIu7/MQPQJdm1okPQ7h4sUMtRVx7tM8LCbwrtxYKKX5czHfCRDAvmFz2DGxiPxfWJ/ZfNseSA7pKulShmdYvA4hMWQtn+iuYMR6ynnwrp/Kya2A9ZvtJ8l5UPsVzjzYUsxzhPioibS4fba7pYGC0hfZunTvlP/zzWJODuFVl85lIDzMTKHiEM+ddPwHOYXHk6D9l89AHZOf6Epq6CotA4blNs92VlhWqLPCz9qrvNTeB79qTOZVzscjTTtssIBIgTyC/Y8EKmdNzTgWYHrCbdjUovlPksy7VTU996MHtKS5clvjaPUrgypSkB3QREzZKXSOAhcjbnnWsya3pwuofx47HMvXRwUfkLBZ4C1DgHrWeScqBifnHtyNQgWsP/jTHqdKD6dzaj+5OUsXcyx9f9YLnLIH8kGJFAn7NzmEOxKhIKe4BtI9HOX4XC7LS2IrvsYf+tmwXM5EtiJgplEKQ2e6jFuli9dYLQkPmKFNMklRmCE8uVZCyXK8BF+LQJE6reKOGXS8WhGYlyXq7Or/eKoSxjdkoJUlOtR6R6XePXrhHL2VGtWwaN01o6GOtJxwtlQc5YSYHrJn18XolbgRjncGxo2bo0MK9CIGq4M796T/99vANRJemD92XecQFYT8brHQhUZTXVOqmrzDojmiHNf07zVSif0a+uX5t5E0AJr4my+T7rVh7Urasbtsqpoh5txRbBL7S2wOUeTgrE45yRgDtgNE29WO90bwHKW1XW1tYEhCLtHSoVJvBHhTKpFlnuYcgg4Gt6CTo/vIglwS5z11b+SFrKpCpnaZTL7GB8DudtHlVuJNl4RU50esbL0pTEuM+dKEhdpFnjptHuO2jwXdwaa5+R5dd407NZBGIbIuXruMjKCjCBYYeKUXaQ+8vXfd+udFQKzLh2AidWe1vJp6qb+C9XA==</t>
         </r>
       </text>
     </comment>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>指标名称</t>
   </si>
@@ -756,30 +756,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.3984375"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2010-3-29","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -848,7 +848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -871,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>40268</v>
       </c>
@@ -894,7 +894,7 @@
         <v>10.8729</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>40329</v>
       </c>
@@ -917,7 +917,7 @@
         <v>22.5806</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>40359</v>
       </c>
@@ -940,7 +940,7 @@
         <v>33.160499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>40390</v>
       </c>
@@ -963,7 +963,7 @@
         <v>38.546999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>40421</v>
       </c>
@@ -986,7 +986,7 @@
         <v>44.013300000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>40451</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>54.423000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>40482</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>62.514299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>40512</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>63.035499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>40543</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>64.397999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>40602</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>12.5448</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>40633</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>22.4634</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>40663</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>27.3187</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>40694</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>31.719200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>40724</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>34.2515</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>40755</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>36.237400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>40786</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>41.909300000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>40816</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>45.485500000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>40847</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>48.720100000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>40877</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>51.127299999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>40908</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>53.955199999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>40968</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>15.5289</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>40999</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>24.370799999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>41029</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>43.2119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>41060</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>58.004800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>41090</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>74.242800000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>41121</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>89.110200000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>41152</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>103.6763</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>41182</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>129.0427</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>41213</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>156.0111</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>41243</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>171.52209999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>41274</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>188.2259</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>41333</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>45.385599999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>41364</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>64.927999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>41394</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>80.739699999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>41425</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>93.127700000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>41455</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>103.91549999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>41486</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>127.0954</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>41517</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>151.47890000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>41547</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>172.1301</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>41578</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>204.9342</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>41608</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>226.4751</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>41639</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>246.15350000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>41670</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>14.0365</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>41729</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>56.754399999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>41759</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>78.354900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>41790</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>101.68859999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>41820</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>131.42910000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>41851</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>157.73169999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>41882</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>185.81960000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>41912</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>214.5547</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>41943</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>247.01750000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>41973</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>276.6934</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>42004</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>306.44940000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>42035</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>30.523399999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>42063</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>57.027299999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>42094</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>95.456199999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>42124</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>136.89060000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>42155</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>171.4785</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>42185</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>212.04220000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>42216</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>274.72230000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>42247</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>335.5249</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>42277</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>386.50310000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>42308</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>439.1189</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>42338</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>495.38760000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>42369</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>559.17790000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>42400</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>63.4649</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>42429</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>112.8019</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>42460</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>149.6559</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>42490</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>201.61959999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>42521</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>243.63200000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>42551</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>300.8159</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>42582</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>344.4794</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>42613</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>383.84160000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>42643</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>425.29020000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>42674</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>459.11419999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>42704</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>495.96100000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>42735</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>527.30859999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>42766</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>34.877699999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>42794</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>73.420500000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>42825</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>103.3373</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>42855</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>126.1781</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>42886</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>143.2764</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>42916</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>163.06620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <v>42947</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>185.6592</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>42978</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>206.5034</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>43008</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>226.66050000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>43039</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>253.3716</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>43069</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>271.35309999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>43100</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>290.16460000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>43131</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>5.6463999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>43159</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>28.0962</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>43190</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>41.982599999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>43220</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>71.609899999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>43251</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>90.220500000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <v>43281</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>112.97324999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <v>43312</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>125.2004</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <v>43343</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>142.3006</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>43373</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>157.39940000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>43404</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>165.2441</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>43434</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>171.9083</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>43465</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>181.17230000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>43496</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>17.943300000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>43524</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>41.906100000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>43555</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>59.488</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>43585</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>72.807599999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>43616</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>82.446399999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>43646</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>88.403700000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
         <v>43677</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>101.06229999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
         <v>43708</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>113.61150000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="5">
         <v>43738</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>127.51860000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="5">
         <v>43769</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>138.57249999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="5">
         <v>43799</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>144.24799999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="5">
         <v>43830</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>148.67230000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="5">
         <v>43861</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>6.4534000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="5">
         <v>43890</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>19.4237</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="5">
         <v>43951</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>57.235799999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="5">
         <v>43982</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>67.906599999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="5">
         <v>44012</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>74.784546000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="5">
         <v>44043</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>79.804856000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="5">
         <v>44074</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>86.734899999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="5">
         <v>44104</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>92.305627000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="5">
         <v>44135</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>100.97164600000001</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="5">
         <v>44165</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>102.928256</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="5">
         <v>44196</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>110.89520899999999</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="5">
         <v>44227</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>13.873894</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="5">
         <v>44255</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>40.700549000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="5">
         <v>44286</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>66.904075000000006</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="5">
         <v>44316</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>69.528914999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="5">
         <v>44347</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>69.839314999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="5">
         <v>44377</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>72.388092999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="5">
         <v>44408</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>75.876170999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="5">
         <v>44439</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>77.903599999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="5">
         <v>44469</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>79.929500000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="5">
         <v>44500</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>80.981200000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="5">
         <v>44530</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>81.310400000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="5">
         <v>44561</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>82.607200000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="5">
         <v>44592</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>0.57010000000000005</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="5">
         <v>44620</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>9.3268000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="5">
         <v>44651</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>13.7963</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="5">
         <v>44681</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>24.467400000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="5">
         <v>44712</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>25.964099999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="5">
         <v>44742</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>31.2484</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="5">
         <v>44773</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>31.534800000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="5">
         <v>44804</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>35.088000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="5">
         <v>44834</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>39.245800000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="5">
         <v>44865</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>45.762999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="5">
         <v>44895</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>49.384799999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="5">
         <v>44926</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>55.207599999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="5">
         <v>44957</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>5.5298999999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="5">
         <v>44985</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>11.0776</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="5">
         <v>45016</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>20.2454</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="5">
         <v>45046</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>28.6751</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="5">
         <v>45077</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>34.384399999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="5">
         <v>45107</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>41.057699999999997</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="5">
         <v>45138</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>51.474699999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="5">
         <v>45169</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>60.314399999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="5">
         <v>45199</v>
       </c>
@@ -4482,13 +4482,41 @@
         <v>67.410700000000006</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="5">
+        <v>45230</v>
+      </c>
+      <c r="B163" s="6">
+        <v>42196778</v>
+      </c>
+      <c r="C163" s="6">
+        <v>7232.9632000000001</v>
+      </c>
+      <c r="D163" s="6">
+        <v>139976876</v>
+      </c>
+      <c r="E163" s="6">
+        <v>6940534</v>
+      </c>
+      <c r="F163" s="6">
+        <v>1780.0524</v>
+      </c>
+      <c r="G163" s="6">
+        <v>70.940299999999993</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A164" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A165" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A166" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/steel/data/mid-stream/螺纹钢/螺纹钢销量.xlsx
+++ b/steel/data/mid-stream/螺纹钢/螺纹钢销量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Project\ffa\steel\data\mid-stream\螺纹钢\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\mid-stream\螺纹钢\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC867620-4DF3-4E46-BD84-CFA5AA60EB92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDD8AF0-CAD3-4931-B681-F7C107CEFDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2512" yWindow="2887" windowWidth="28800" windowHeight="14686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>FUDIAN</author>
+    <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C48599AA-E2E4-4BEA-85D9-E0FE167ADBB0}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DACBF0D8-C496-4228-BF4B-BBBE14C7CC31}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvOHlEoAN60+iXcNR8qcjD2afR3U+XlDrUTEX5W5KWYQZl2WlS6znR8JdtRv8fy9hcGzGgX1t8jwbDwAx0EUQZsw3ZWNu8RJYhGO4TcQ9l1JkQHbe3Y9+FG0Tmzb5nAqIClWWKfYkQKr3HY3DNkUELEitQOt11rUEoTssMa5+fEiCZh0fRmPAaxPyyghtjio/6IHRpGZL4U5nc20yzaPUF4phHioFQ5XlnWvDmueoEf4Opr900VFoWZ505onbskxSY7VQf/iJCfVk/e1GyfdP+hQB9RD28vzTKNxhcdA2LYysSUy07/I0XfWOkSri+72gXT8KBts7ZTegFKbG6zTZnprcwMUSJRyw5fAae4nbKSjiqs1zB/mk+uOEQHsZ29oB+6o/fEYTv5GjGexPQzySVyUIid5UT+iTeCXJo27k7SygNKvG/uJGzpC//xO/IM3mxvNBp+pcQHpoy72w1vwqDB54drsVHfRAAEcbLJmMT8Gy6N3rodg+6OVcNZkju8LALW4xJHxztiIGkEJAwhZ9Dl+2cp2vQdoC5sA3FWfnJmX4bSLK4fxPLDc1ZXzt4U8gp/zhbALf5Zw5nSsxSQxRVj6V8l3ui0rfBSIKDCuWoVS2aEzOKyMsgcnTw2pmIZP900k3ct3pJPLKsjxVBdJU90QPZxr4h5dm7gBbxPdUCfKbCKks4KUZFisoFVYPxzyH9utTzVZ56wBWl0f7AhAACBZftRH4XKSp2z2JONG/RxtNFTkZdlPhZdLgzRL2eyKpMQfnF+UXOpD7YdSy5y5+rHwQ+7PYlFQyPgTScvwlPVsyaZWZAgfgbVmzmtWFy3zxw9sYpGOappNSL/ekEIw6OLGV6NzuKR340acDJ3pkOQQ1PphDNYqz4KOJovPm3lGs8e3AnmAqO2HLJSzSWeSabe9GFBQwsgWTMykJBl8LS/VE/YKFIu7/MQPQJdm1okPQ7h4sUMtRVx7tM8LCbwrtxYKKX5czHfCRDAvmFz2DGxiPxfWJ/ZfNseSA7pKulShmdYvA4hMWQtn+iuYMR6ynnwrp/Kya2A9ZvtJ8l5UPsVzjzYUsxzhPioibS4fba7pYGC0hfZunTvlP/zzWJODuFVl85lIDzMTKHiEM+ddPwHOYXHk6D9l89AHZOf6Epq6CotA4blNs92VlhWqLPCz9qrvNTeB79qTOZVzscjTTtssIBIgTyC/Y8EKmdNzTgWYHrCbdjUovlPksy7VTU996MHtKS5clvjaPUrgypSkB3QREzZKXSOAhcjbnnWsya3pwuofx47HMvXRwUfkLBZ4C1DgHrWeScqBifnHtyNQgWsP/jTHqdKD6dzaj+5OUsXcyx9f9YLnLIH8kGJFAn7NzmEOxKhIKe4BtI9HOX4XC7LS2IrvsYf+tmwXM5EtiJgplEKQ2e6jFuli9dYLQkPmKFNMklRmCE8uVZCyXK8BF+LQJE6reKOGXS8WhGYlyXq7Or/eKoSxjdkoJUlOtR6R6XePXrhHL2VGtWwaN01o6GOtJxwtlQc5YSYHrJn18XolbgRjncGxo2bo0MK9CIGq4M796T/99vANRJemD92XecQFYT8brHQhUZTXVOqmrzDojmiHNf07zVSif0a+uX5t5E0AJr4my+T7rVh7Urasbtsqpoh5txRbBL7S2wOUeTgrE45yRgDtgNE29WO90bwHKW1XW1tYEhCLtHSoVJvBHhTKpFlnuYcgg4Gt6CTo/vIglwS5z11b+SFrKpCpnaZTL7GB8DudtHlVuJNl4RU50esbL0pTEuM+dKEhdpFnjptHuO2jwXdwaa5+R5dd407NZBGIbIuXruMjKCjCBYYeKUXaQ+8vXfd+udFQKzLh2AidWe1vJp6qb+C9XA==</t>
+          <t>yVjpCgZpNvOo0CXxW3eR4HOIrS+iJBe1s4BmYiRMzkvT/b0Thz+BczQumKulgeZlincFv79IQKlmwyL1J4mnCLqY5dDqwzSm4JB91aCpDyrpx6tBELW56kXdW21jzZopBYa/LLXRq3JmfrGvRAlHJGieJdyFvnLK0F5GI6YK84j2xeFwW4xnm4vlk/9lRfk2PE6eQTmQMXDhVlTbC4pcjhMD/2sqRDPafDbsbifrZYB8OBmLPG4EkH0klllVkAEg7o2rBVxNQERnKbQ5dNnb/J5jhHzypnvhWQ32p1bMqYavy5tKvc8bzdIwI9Po5TXllYHhOGHRuZfsrGzzznJKkw6xzxTpdc4UAsN1+P+tKL18KW/vRvEp3sLMokDQqW8uGcrg1iqIAJq7CmXMnbx3V6OZG3of3xZgSF7ov1ZgQue8m/4XONBqp2+jCDnc5KkClc/GS41hY3QeGcpWlPEnLy58sAIaCKUwR+xUc9vEOi+Pnimy6DFy7TOuEA69y86LgOMJHGCfRH7hlN+WkiAxeU1/XgLsSlN+I/fc9B81ZCYZHe/CWSQQbJR6YMbH4I9xx3OBWhhrlq1Tfa2C5n8e5Dcr0ofUAdsSxXa2z/OtAL5fFuHhHN9/mLJ9rVy15iWomrqlUPgo6656fjEu9v9ZV+cehf1LlNWTbXdntTlHGsZrbu+EN2cnIHwtA8cORioFbkfY7DtTL3t6y/6bg5A2Q7asLQ4GVjVIYbZsypnUF+6uQDeZ1YHpG9UgkVCAzgFvFHxPyIW0kHfFZcsL+sKIj7OtqWRXTV8fxZyMcl9Zoql/WM/ynzfHRy1VjJJehYmCRxJ+egux2MDokX7EiRBpISZHKKfZEe9zq0r9/5EgR8bCmvAimsHS6x/RWh2lDiCAHSkRfZtp+B8qvwjMWyvZ6R3qq+ZSihlKiT6Much0bMGSU1To2o5kqP9gJEfyCVlo7m1JihOyo5HQzBMwUYMxEnrvC438N7sesooT04qP05Jb5BAyc1ErNc1+6IyJFsbLnEdaGdXXOBz1DI9wPm+5F2XXdWf9SeZUCehHSwuKmVWm1FFWkI2hoLRaIdF0ZlNGIhhPdB6zd/zh7vckOpDbULi9KTFcZtqSYtsUliFv4K15LeDng6y2Pbp3fXToFJ6A3lj6Opfoc+HOJR/N750lb44s7pcFe7BAxO705ZiMn7qIgNnfW+4C/1Su/qHlYE8X5Yy3NQuRBNbNke1GlAMj5RWvxb7a3bE+qTHSl/f5Ff2rgXtT8zgXsH7o3UyKDQ3z/I2PJq33PMk=</t>
         </r>
       </text>
     </comment>
@@ -756,30 +756,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="G166" sqref="G166"/>
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.375"/>
+    <col min="1" max="1" width="8.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.3984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>[1]!EM_EDB_N("2010-3-29","N","Columns=Name,Frequency,Unit,Source&amp;Order=2&amp;DateFormat=1&amp;Chart=2&amp;ClearArea=NULL&amp;CellFormat=1&amp;Layout=0")</f>
         <v>宏观数据</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -848,7 +848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -871,7 +871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>40268</v>
       </c>
@@ -894,7 +894,7 @@
         <v>10.8729</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>40329</v>
       </c>
@@ -917,7 +917,7 @@
         <v>22.5806</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>40359</v>
       </c>
@@ -940,7 +940,7 @@
         <v>33.160499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>40390</v>
       </c>
@@ -963,7 +963,7 @@
         <v>38.546999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>40421</v>
       </c>
@@ -986,7 +986,7 @@
         <v>44.013300000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>40451</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>54.423000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>40482</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>62.514299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>40512</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>63.035499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>40543</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>64.397999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>40602</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>12.5448</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>40633</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>22.4634</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>40663</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>27.3187</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>40694</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>31.719200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>40724</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>34.2515</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>40755</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>36.237400000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>40786</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>41.909300000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>40816</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>45.485500000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>40847</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>48.720100000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
         <v>40877</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>51.127299999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
         <v>40908</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>53.955199999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>40968</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>15.5289</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>40999</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>24.370799999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>41029</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>43.2119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>41060</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>58.004800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
         <v>41090</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>74.242800000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
         <v>41121</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>89.110200000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>41152</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>103.6763</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>41182</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>129.0427</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>41213</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>156.0111</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
         <v>41243</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>171.52209999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
         <v>41274</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>188.2259</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
         <v>41333</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>45.385599999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
         <v>41364</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>64.927999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5">
         <v>41394</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>80.739699999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5">
         <v>41425</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>93.127700000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5">
         <v>41455</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>103.91549999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>41486</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>127.0954</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5">
         <v>41517</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>151.47890000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5">
         <v>41547</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>172.1301</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>41578</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>204.9342</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>41608</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>226.4751</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5">
         <v>41639</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>246.15350000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5">
         <v>41670</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>14.0365</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5">
         <v>41729</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>56.754399999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>41759</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>78.354900000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
         <v>41790</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>101.68859999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="5">
         <v>41820</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>131.42910000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
         <v>41851</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>157.73169999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5">
         <v>41882</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>185.81960000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
         <v>41912</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>214.5547</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>41943</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>247.01750000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
         <v>41973</v>
       </c>
@@ -2067,7 +2067,7 @@
         <v>276.6934</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>42004</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>306.44940000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
         <v>42035</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>30.523399999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5">
         <v>42063</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>57.027299999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
         <v>42094</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>95.456199999999995</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>42124</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>136.89060000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>42155</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>171.4785</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>42185</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>212.04220000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>42216</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>274.72230000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>42247</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>335.5249</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>42277</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>386.50310000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5">
         <v>42308</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>439.1189</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
         <v>42338</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>495.38760000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5">
         <v>42369</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>559.17790000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
         <v>42400</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>63.4649</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5">
         <v>42429</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>112.8019</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
         <v>42460</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>149.6559</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5">
         <v>42490</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>201.61959999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
         <v>42521</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>243.63200000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5">
         <v>42551</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>300.8159</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
         <v>42582</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>344.4794</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
         <v>42613</v>
       </c>
@@ -2550,7 +2550,7 @@
         <v>383.84160000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
         <v>42643</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>425.29020000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
         <v>42674</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>459.11419999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
         <v>42704</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>495.96100000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
         <v>42735</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>527.30859999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
         <v>42766</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>34.877699999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
         <v>42794</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>73.420500000000004</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
         <v>42825</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>103.3373</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
         <v>42855</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>126.1781</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
         <v>42886</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>143.2764</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
         <v>42916</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>163.06620000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
         <v>42947</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>185.6592</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
         <v>42978</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>206.5034</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
         <v>43008</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>226.66050000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
         <v>43039</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>253.3716</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
         <v>43069</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>271.35309999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
         <v>43100</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>290.16460000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
         <v>43131</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>5.6463999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
         <v>43159</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>28.0962</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
         <v>43190</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>41.982599999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
         <v>43220</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>71.609899999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
         <v>43251</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>90.220500000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
         <v>43281</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>112.97324999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
         <v>43312</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>125.2004</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
         <v>43343</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>142.3006</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
         <v>43373</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>157.39940000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
         <v>43404</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>165.2441</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
         <v>43434</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>171.9083</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
         <v>43465</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>181.17230000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
         <v>43496</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>17.943300000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
         <v>43524</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>41.906100000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
         <v>43555</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>59.488</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
         <v>43585</v>
       </c>
@@ -3286,7 +3286,7 @@
         <v>72.807599999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
         <v>43616</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>82.446399999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="5">
         <v>43646</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>88.403700000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
         <v>43677</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>101.06229999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="5">
         <v>43708</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>113.61150000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
         <v>43738</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>127.51860000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="5">
         <v>43769</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>138.57249999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
         <v>43799</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>144.24799999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>43830</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>148.67230000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>43861</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>6.4534000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>43890</v>
       </c>
@@ -3516,7 +3516,7 @@
         <v>19.4237</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>43951</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>57.235799999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>43982</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>67.906599999999997</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
         <v>44012</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>74.784546000000006</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5">
         <v>44043</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>79.804856000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
         <v>44074</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>86.734899999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5">
         <v>44104</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>92.305627000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
         <v>44135</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>100.97164600000001</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5">
         <v>44165</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>102.928256</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
         <v>44196</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>110.89520899999999</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5">
         <v>44227</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>13.873894</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
         <v>44255</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>40.700549000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5">
         <v>44286</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>66.904075000000006</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
         <v>44316</v>
       </c>
@@ -3815,7 +3815,7 @@
         <v>69.528914999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5">
         <v>44347</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>69.839314999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
         <v>44377</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>72.388092999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5">
         <v>44408</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>75.876170999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
         <v>44439</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>77.903599999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5">
         <v>44469</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>79.929500000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
         <v>44500</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>80.981200000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5">
         <v>44530</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>81.310400000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
         <v>44561</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>82.607200000000006</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5">
         <v>44592</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>0.57010000000000005</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
         <v>44620</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>9.3268000000000004</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5">
         <v>44651</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>13.7963</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
         <v>44681</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>24.467400000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5">
         <v>44712</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>25.964099999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
         <v>44742</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>31.2484</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5">
         <v>44773</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>31.534800000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
         <v>44804</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>35.088000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5">
         <v>44834</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>39.245800000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
         <v>44865</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>45.762999999999998</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5">
         <v>44895</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>49.384799999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
         <v>44926</v>
       </c>
@@ -4275,7 +4275,7 @@
         <v>55.207599999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5">
         <v>44957</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>5.5298999999999996</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
         <v>44985</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>11.0776</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5">
         <v>45016</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>20.2454</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
         <v>45046</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>28.6751</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5">
         <v>45077</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>34.384399999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
         <v>45107</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>41.057699999999997</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5">
         <v>45138</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>51.474699999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
         <v>45169</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>60.314399999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5">
         <v>45199</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>67.410700000000006</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
         <v>45230</v>
       </c>
@@ -4505,18 +4505,41 @@
         <v>70.940299999999993</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A164" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
+        <v>45260</v>
+      </c>
+      <c r="B164" s="6">
+        <v>46756329</v>
+      </c>
+      <c r="C164" s="6">
+        <v>7888.1061</v>
+      </c>
+      <c r="D164" s="6">
+        <v>152735613</v>
+      </c>
+      <c r="E164" s="6">
+        <v>7679020</v>
+      </c>
+      <c r="F164" s="6">
+        <v>1864.5146</v>
+      </c>
+      <c r="G164" s="6">
+        <v>77.405299999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
         <v>14</v>
       </c>
     </row>
